--- a/biology/Médecine/Lichen_plan/Lichen_plan.xlsx
+++ b/biology/Médecine/Lichen_plan/Lichen_plan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lichen plan (latin : lichen planus) est une maladie inflammatoire  touchant la peau, la muqueuse de la bouche, ou parfois les deux. Plus rarement, et avec un diagnostic plus difficile, l'œsophage et les conjonctives peuvent être touchés[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lichen plan (latin : lichen planus) est une maladie inflammatoire  touchant la peau, la muqueuse de la bouche, ou parfois les deux. Plus rarement, et avec un diagnostic plus difficile, l'œsophage et les conjonctives peuvent être touchés,.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cause exacte reste inconnue. Elle n'est pas d'origine mycosique. Il existe de nombreux facteurs favorisants. Il est ainsi souvent lié au stress. Des réactions dites « lichénoïdes », qui présentent des aspects du lichen plan, sont liées à des réactions allergiques aux médicaments contre l'hypertension, ou l'insuffisance cardiaque, l'arthrite et certains antiépileptiques. On parle également d'« infection lichénoïde des muqueuses » ou de « dermatite lichénoïde ».
-Le lichen plan peut également survenir comme complication de l'hépatite C chronique[3].
-Deux cas de lichen plan pemphigoïde induits par la prise d’inhibiteur de l’enzyme de conversion de l'angiotensine ont été rapportés[4].
-Il s'agit très probablement d'une maladie auto-immune même si l'antigène responsable n'est pas identifié[5]. Il est parfois associé à d'autres maladies de même mécanisme comme l'alopécie aerata ou les maladies inflammatoires chroniques intestinales[6].
-Il existe de rares formes familiales, avec un groupe HLA légèrement prédominant, évoquant un possible facteur génétique[7].
+Le lichen plan peut également survenir comme complication de l'hépatite C chronique.
+Deux cas de lichen plan pemphigoïde induits par la prise d’inhibiteur de l’enzyme de conversion de l'angiotensine ont été rapportés.
+Il s'agit très probablement d'une maladie auto-immune même si l'antigène responsable n'est pas identifié. Il est parfois associé à d'autres maladies de même mécanisme comme l'alopécie aerata ou les maladies inflammatoires chroniques intestinales.
+Il existe de rares formes familiales, avec un groupe HLA légèrement prédominant, évoquant un possible facteur génétique.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lichen plan affecte 1 à 2 % de la population mondiale[8], et se présente plus souvent chez l'adulte au-delà de 40 ans. Il survient un peu plus tôt chez l'homme, par rapport à chez la femme[9]. La forme infantile est rare[10]. 
-Les femmes sont majoritairement touchées par le lichen plan buccal (3 femmes affectées pour 2 hommes), mais pour le reste il se distribue également entre les deux sexes[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lichen plan affecte 1 à 2 % de la population mondiale, et se présente plus souvent chez l'adulte au-delà de 40 ans. Il survient un peu plus tôt chez l'homme, par rapport à chez la femme. La forme infantile est rare. 
+Les femmes sont majoritairement touchées par le lichen plan buccal (3 femmes affectées pour 2 hommes), mais pour le reste il se distribue également entre les deux sexes.
 </t>
         </is>
       </c>
@@ -578,16 +594,18 @@
           <t>Aspects cliniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aspect du lichen plan est varié[12] et diffère selon sa localisation sur le corps. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aspect du lichen plan est varié et diffère selon sa localisation sur le corps. 
 Le début est brutal, évoquant l'allergie : la peau se couvre de papules, qui démangent le patient (prurit persistant). Les papules sont légèrement surélevées, avec une surface plate au centre. Elles sont souvent de couleur rouge rosé à rouge sombre, mais peuvent aussi présenter des points blancs irréguliers (stries de Wickham). Les lésions peuvent être généralisées ou se cantonner à une petite surface de peau ou de muqueuse. Une douleur musculaire et/ou rhumatismale peut accompagner les poussées. La maladie peut se prolonger de 12 à 18 mois, parfois plus.
 Les lésions cutanées sont constituées de papules rouge rosé à rouge foncé, au sommet aplati, apparaissant le plus souvent sur la face interne des avant-bras, aux poignets ou aux chevilles. Les autres locations préférentielles sont la région lombaire du dos, le cou et les jambes. Les lésions sont réparties en lignes le long des plis de la peau, en groupes, ou le long d'une égratignure ou autre blessure. Les papules peuvent être couvertes de lignes blanches fines. Le prurit est fréquent. Parfois les papules peuvent présenter des croûtes, des écailles ou des ampoules. Il existe peu de cicatrices sauf en cas d'écorchures par grattage intense. Les lésions laissent parfois des taches brunes ou violacées qui s'estompent difficilement avec le temps.
-Les cas de lichen plan buccal représentent 50 % des cas de lichen plan[11]. Elles sont constituées de taches blanches irrégulières, parfois en plaques et souvent douloureuses, fréquemment sur la face internes des joues mais aussi sur les gencives, les lèvres et la langue[13]. Des lésions ressemblant à des ulcères peuvent aussi apparaître dans la bouche, avec le même effet que les ulcères  : douloureux, et/ou sensation de brûlure. Une extension à l'œsophage est fréquente[14]. Les lésions peuvent être suffisamment gênantes pour altérer la qualité de vie[15].
+Les cas de lichen plan buccal représentent 50 % des cas de lichen plan. Elles sont constituées de taches blanches irrégulières, parfois en plaques et souvent douloureuses, fréquemment sur la face internes des joues mais aussi sur les gencives, les lèvres et la langue. Des lésions ressemblant à des ulcères peuvent aussi apparaître dans la bouche, avec le même effet que les ulcères  : douloureux, et/ou sensation de brûlure. Une extension à l'œsophage est fréquente. Les lésions peuvent être suffisamment gênantes pour altérer la qualité de vie.
 Le lichen plan génital est plus courant chez la femme avec des lésions rouge sombre avec prurit sur la vulve, ou lésions douloureuses sur la membrane muqueuse du vagin. Les cicatrices sont rares une fois la guérison obtenue. Chez l'homme, les lésions rouge sombre accompagnées de prurit sont localisées principalement sur le gland.
 La localisation au niveau du cuir chevelu est assez rare, sous forme de « lichen plan folliculaire ». Elle peut entraîner une perte de cheveux temporaire ou permanente, des cicatrices ou décoloration du cuir chevelu après guérison.
 Les ongles sont rarement affectés. Ils peuvent parfois comporter des stries sur la longueur de l'ongle, un amincissement ou une fente de l'ongle, pouvant aller jusqu’à la perte de ce dernier, temporaire ou permanente.
-Il peut exister des cas de lichen plan oculaire[16].
+Il peut exister des cas de lichen plan oculaire.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Différents types de lichen plan</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « lichen plan hypertrophique » se présente sous forme de plaques de peau épaissie (hyperkératose), souvent localisées au niveau des pieds (chevilles notamment mais aussi crête du tibia, orteils, etc.). La maladie peut se prolonger sur plusieurs années.
 Le « lichen plan folliculaire » ou « lichen planopilaris » est constitué de follicules entourés d'un érythème avec bouchon kératosique, le tout formant des papules spinulosiques péripilaires. Il engendre une alopécie de type cicatriciel, irréversible. Cette forme de lichen plan atteint rarement uniquement le cuir chevelu. Il ne doit pas être confondu avec un lupus érythémateux, une kératose folliculaire, une maladie de Darier, mucinose folliculaire, un lichen scrofulosorum.
@@ -657,11 +677,13 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans deux tiers des cas l'éruption disparaît au bout d'un an avec cependant, un risque de récidive[9]. Il peut subsister une hyperpigmentation de la peau.
-Les formes orales sont beaucoup plus chroniques[17].
-Le problème des formes orales est qu'il constitue possiblement une lésion pré-cancéreuse, même si l'évolution vers un cancer reste rare (inférieure à 3% sur 10 ans[18]). Ce risque augmente avec l'âge et la sévérité des lésions ainsi qu'avec la co-existence d'un alcoolisme, d'un tabagisme ou d'une infection avec le virus de l'hépatite C[19]. Cette transformation cancéreuse est également décrite dans les localisations génitales[20] mais à titre anecdotique.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans deux tiers des cas l'éruption disparaît au bout d'un an avec cependant, un risque de récidive. Il peut subsister une hyperpigmentation de la peau.
+Les formes orales sont beaucoup plus chroniques.
+Le problème des formes orales est qu'il constitue possiblement une lésion pré-cancéreuse, même si l'évolution vers un cancer reste rare (inférieure à 3% sur 10 ans). Ce risque augmente avec l'âge et la sévérité des lésions ainsi qu'avec la co-existence d'un alcoolisme, d'un tabagisme ou d'une infection avec le virus de l'hépatite C. Cette transformation cancéreuse est également décrite dans les localisations génitales mais à titre anecdotique.
 </t>
         </is>
       </c>
@@ -690,7 +712,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est essentiellement clinique mais peut nécessiter parfois la réalisation d'une biopsie surtout en cas de forme chronique et muqueuse, afin d'éliminer une transformation cancéreuse.
 </t>
@@ -721,7 +745,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lichen plan peut présenter des symptômes similaires à ceux d'autres affections, par exemple :
 une réaction lichénoïde aux médicaments ;
@@ -758,25 +784,97 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Le lichen plan cutané est d'évolution favorable spontanément sur un an. Les traitements proposés tentent de réduire cette durée d'évolution et de diminuer les symptômes. La preuve de leur efficacité est le plus souvent empirique[7].
-Traitements médicamenteux
-Les corticostéroïdes[12] peuvent réduire l'inflammation associée aux lésions. Leur bénéfice doit être balancé avec la présence possible d'effets secondaires lors de leur utilisation sur le long terme, qui varient selon la forme utilisée :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lichen plan cutané est d'évolution favorable spontanément sur un an. Les traitements proposés tentent de réduire cette durée d'évolution et de diminuer les symptômes. La preuve de leur efficacité est le plus souvent empirique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lichen_plan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lichen_plan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traitements médicamenteux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les corticostéroïdes peuvent réduire l'inflammation associée aux lésions. Leur bénéfice doit être balancé avec la présence possible d'effets secondaires lors de leur utilisation sur le long terme, qui varient selon la forme utilisée :
 crème sur les lésions : les corticostéroïdes contenus dans les crèmes peuvent amincir localement la peau, rendre le traitement moins efficace ;
 prise orale : affaiblissement des os (ostéoporose), diabète, augmentation de la pression sanguine, élévation du cholestérol, et autres effets secondaires sérieux ;
 injections (administrées directement dans les lésions ou dans des tissus musculaires) : mêmes effets que les corticostéroïdes en prise orale.
-Les rétinoïdes sont des versions synthétiques de la vitamine A, que l'on peut utiliser en application locale ou en prise orale. Leur application locale ne présente pas les problèmes posés par les corticostéroïdes mais peut irriter la peau ou les muqueuses. Ils ont une efficacité démontrée[21]. Ils sont interdits aux femmes enceintes ou qui prévoient de le devenir dans un avenir proche, car ils peuvent causer des anomalies chez l'enfant.
-Il existe des crèmes contenant des immunosuppresseurs inhibant la calcineurine, proches des médications orales utilisées pour empêcher le rejet d'organes greffés. Ces crèmes n'ont pas d'efficacité démontrée[22].
-Les antihistaminiques[12] bloquent l'action de l'histamine, amine biogène impliquée dans les processus allergiques. En prise orale ou application locale, un antihistaminique peut soulager le prurit, ou la douleur, associé au lichen plan.
-Les formes orales asymptomatiques n'ont pas besoin de traitement. L'application de corticoïdes locaux permettent d'améliorer les symptômes[23].
-Traitements non médicamenteux
-Dans la mesure du possible, il faut jouer sur les facteurs favorisants (prise médicamenteuse, hépatite virale, allergie...)
+Les rétinoïdes sont des versions synthétiques de la vitamine A, que l'on peut utiliser en application locale ou en prise orale. Leur application locale ne présente pas les problèmes posés par les corticostéroïdes mais peut irriter la peau ou les muqueuses. Ils ont une efficacité démontrée. Ils sont interdits aux femmes enceintes ou qui prévoient de le devenir dans un avenir proche, car ils peuvent causer des anomalies chez l'enfant.
+Il existe des crèmes contenant des immunosuppresseurs inhibant la calcineurine, proches des médications orales utilisées pour empêcher le rejet d'organes greffés. Ces crèmes n'ont pas d'efficacité démontrée.
+Les antihistaminiques bloquent l'action de l'histamine, amine biogène impliquée dans les processus allergiques. En prise orale ou application locale, un antihistaminique peut soulager le prurit, ou la douleur, associé au lichen plan.
+Les formes orales asymptomatiques n'ont pas besoin de traitement. L'application de corticoïdes locaux permettent d'améliorer les symptômes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lichen_plan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lichen_plan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traitements non médicamenteux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans la mesure du possible, il faut jouer sur les facteurs favorisants (prise médicamenteuse, hépatite virale, allergie...)
 La photothérapie ou thérapie par la lumière, peut aider à supprimer le lichen plan de la peau : 
-photothérapie à spectre étroit : la plus commune des thérapies par la lumière, elle utilise l'ultraviolet B (UVB) qui pénètre seulement la couche supérieure de la peau (épiderme). Il y a risque de brûlure style « coup de soleil »[24],[25] ;
-une autre thérapie par la lumière utilise l'ultraviolet A (UVA), qui pénètre plus profond dans la peau. Cette thérapie est habituellement conjointe (puvathérapie) avec une drogue rendant la peau plus sensible à l'ultraviolet A, le psoralène. L'efficacité est démontrée mais sur une petite série[26]. Les effets secondaires possibles sont : maux de tête, nausées, prurit. Il est préférable d'éviter l'exposition au soleil dans les quelques jours suivant la prise du médicament associé, pour éviter les coups de soleil. Pendant cette période il faut également porter des lunettes de soleil capables de repousser les UVA du soleil.
-D'autres produits ont une certaine efficacité : Aloe vera[27], Pourpier[28] ;
-bains avec de l'avoine colloïdale[12], application de compresses fraîches[12], huile essentielle de lavande[12] ou de melaleuca alternifolia[12], bains contenant des minéraux sulfurés[12], suppléments de vitamines[12] ainsi qu'un régime alimentaire riche en fruits et légumes[12], de l'huile de foie de morue, une source de vitamines A et D[12]</t>
+photothérapie à spectre étroit : la plus commune des thérapies par la lumière, elle utilise l'ultraviolet B (UVB) qui pénètre seulement la couche supérieure de la peau (épiderme). Il y a risque de brûlure style « coup de soleil », ;
+une autre thérapie par la lumière utilise l'ultraviolet A (UVA), qui pénètre plus profond dans la peau. Cette thérapie est habituellement conjointe (puvathérapie) avec une drogue rendant la peau plus sensible à l'ultraviolet A, le psoralène. L'efficacité est démontrée mais sur une petite série. Les effets secondaires possibles sont : maux de tête, nausées, prurit. Il est préférable d'éviter l'exposition au soleil dans les quelques jours suivant la prise du médicament associé, pour éviter les coups de soleil. Pendant cette période il faut également porter des lunettes de soleil capables de repousser les UVA du soleil.
+D'autres produits ont une certaine efficacité : Aloe vera, Pourpier ;
+bains avec de l'avoine colloïdale, application de compresses fraîches, huile essentielle de lavande ou de melaleuca alternifolia, bains contenant des minéraux sulfurés, suppléments de vitamines ainsi qu'un régime alimentaire riche en fruits et légumes, de l'huile de foie de morue, une source de vitamines A et D</t>
         </is>
       </c>
     </row>
